--- a/Produktliste_v2.xlsx
+++ b/Produktliste_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Github\Projekte\Jalousiensteuerung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Github\Projekte\ims.project.shuttercontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24428960-7CA1-4C0E-9CB8-2605AFA27134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E4C0A-2FFB-4B80-A28A-14BEEB127041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00694357-DF91-4AF0-9B5F-E4BFA4A329A2}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00694357-DF91-4AF0-9B5F-E4BFA4A329A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -309,6 +309,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -644,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004C0A56-1292-4C12-BBC2-CA2DEF3CACC6}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="75" zoomScaleNormal="84" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +662,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="58.5703125" customWidth="1"/>
+    <col min="10" max="10" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,6 +1014,9 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
